--- a/server/uploads/FILE.xlsx
+++ b/server/uploads/FILE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Results-Scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE11F26-763E-4292-850B-482E10517FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68BDCD7C-82A7-422C-A771-81C10486698A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{17672C80-5648-4160-AF86-254B008E6596}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E992706B-6976-46FE-BC87-9CB7EDF6D81C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,28 +36,20 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Register_no</t>
+    <t>regno</t>
   </si>
   <si>
-    <t>DOB</t>
+    <t>dob</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -71,7 +63,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -79,34 +71,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Heading 3" xfId="1" builtinId="18"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -418,65 +391,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B5749D9-463C-4C0E-AEDF-F452182A92C7}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8E216C-A426-407E-AEDB-43F06608A944}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>5802651</v>
-      </c>
-      <c r="B2" s="2">
-        <v>38365</v>
+      <c r="A2">
+        <v>7852508</v>
+      </c>
+      <c r="B2" s="1">
+        <v>38765</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>5102692</v>
-      </c>
-      <c r="B3" s="2">
-        <v>38275</v>
+      <c r="A3">
+        <v>7852508</v>
+      </c>
+      <c r="B3" s="1">
+        <v>38765</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>5802220</v>
-      </c>
-      <c r="B4" s="2">
-        <v>38563</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>5802219</v>
-      </c>
-      <c r="B5" s="2">
-        <v>38535</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5802228</v>
-      </c>
-      <c r="B6" s="2">
-        <v>38295</v>
+      <c r="A4">
+        <v>7852508</v>
+      </c>
+      <c r="B4" s="1">
+        <v>38765</v>
       </c>
     </row>
   </sheetData>

--- a/server/uploads/FILE.xlsx
+++ b/server/uploads/FILE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Results-Scraper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anand\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68BDCD7C-82A7-422C-A771-81C10486698A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{424E40F8-C0BE-4582-945F-E00442FB112B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E992706B-6976-46FE-BC87-9CB7EDF6D81C}"/>
   </bookViews>
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8E216C-A426-407E-AEDB-43F06608A944}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,26 +413,82 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>7852508</v>
+        <v>3809988</v>
       </c>
       <c r="B2" s="1">
-        <v>38765</v>
+        <v>39903</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>7852508</v>
+        <v>3809990</v>
       </c>
       <c r="B3" s="1">
-        <v>38765</v>
+        <v>39714</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>7852508</v>
+        <v>3810000</v>
       </c>
       <c r="B4" s="1">
-        <v>38765</v>
+        <v>40107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3810004</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45368</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3756987</v>
+      </c>
+      <c r="B6" s="1">
+        <v>39700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3789094</v>
+      </c>
+      <c r="B7" s="1">
+        <v>39909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3788342</v>
+      </c>
+      <c r="B8" s="1">
+        <v>39744</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3788366</v>
+      </c>
+      <c r="B9" s="1">
+        <v>39800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3788356</v>
+      </c>
+      <c r="B10" s="1">
+        <v>39558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3645624</v>
+      </c>
+      <c r="B11" s="1">
+        <v>39662</v>
       </c>
     </row>
   </sheetData>
